--- a/biology/Botanique/Cassiope/Cassiope.xlsx
+++ b/biology/Botanique/Cassiope/Cassiope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassiope est un genre de plante à fleurs de la famille des Ericaceae. Ce sont des bruyères arctiques qui poussent en buissons nains. Il doit son nom à la reine Cassiopée de la mythologie grecque. Il a été défini par David Don en 1834 en ôtant plusieurs espèces du genre Andromeda[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassiope est un genre de plante à fleurs de la famille des Ericaceae. Ce sont des bruyères arctiques qui poussent en buissons nains. Il doit son nom à la reine Cassiopée de la mythologie grecque. Il a été défini par David Don en 1834 en ôtant plusieurs espèces du genre Andromeda.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Cassiope vient de Cassiopée, mère d'Andromède[3],[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Cassiope vient de Cassiopée, mère d'Andromède.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon David Don, le calice des fleurs du genre a cinq sépales, la corolle, constituée de cinq pétales, est en forme de cloche (comme le muguet) ; à l'intérieur de la corolle, Don compte dix étamines[1].
-Les plantes du genre Cassiope sont petites, moussues ; elles ont une tige mince et raide ; les feuilles ont une forme d'écaille et sont toujours près de la tige[5],[6].
-La floraison a lieu au printemps[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon David Don, le calice des fleurs du genre a cinq sépales, la corolle, constituée de cinq pétales, est en forme de cloche (comme le muguet) ; à l'intérieur de la corolle, Don compte dix étamines.
+Les plantes du genre Cassiope sont petites, moussues ; elles ont une tige mince et raide ; les feuilles ont une forme d'écaille et sont toujours près de la tige,.
+La floraison a lieu au printemps.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le rencontre dans les régions circumboréales et dans certaines montagnes de l'hémisphère nord[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre dans les régions circumboréales et dans certaines montagnes de l'hémisphère nord.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cassiope ericoides
 Cassiope fastigiata (Himalaya)
